--- a/tests/test_paklijsten/paklijst_all_possibilities.xlsx
+++ b/tests/test_paklijsten/paklijst_all_possibilities.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flori\Documents\HDS\2d_rectangle_packing\rectangle_packing\test_paklijsten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flori\Documents\HDS\2d_rectangle_packing\tests\test_paklijsten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0045F1C8-8D0D-4766-A7AD-96E6695344E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50FB214-68CA-48AE-B388-447C12BA441E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28755" yWindow="-16530" windowWidth="15990" windowHeight="24840" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="paklijst_zonder_opmaak" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="153">
   <si>
     <t>Aantal</t>
   </si>
@@ -577,6 +577,9 @@
   </si>
   <si>
     <t>Grijs_(PSE606)</t>
+  </si>
+  <si>
+    <t>Materiaal</t>
   </si>
 </sst>
 </file>
@@ -586,13 +589,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -662,22 +672,12 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -689,42 +689,54 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1060,28 +1072,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.5703125"/>
-    <col min="2" max="2" width="6.140625"/>
-    <col min="3" max="3" width="53.85546875"/>
+    <col min="1" max="1" width="6.5546875"/>
+    <col min="2" max="2" width="6.109375"/>
+    <col min="3" max="3" width="53.88671875"/>
     <col min="4" max="4" width="8"/>
-    <col min="5" max="5" width="6.85546875"/>
-    <col min="6" max="6" width="11.5703125"/>
-    <col min="7" max="7" width="14.28515625"/>
-    <col min="8" max="8" width="13.5703125"/>
-    <col min="9" max="9" width="27.85546875"/>
-    <col min="10" max="10" width="10.85546875"/>
-    <col min="11" max="1025" width="8.5703125"/>
+    <col min="5" max="5" width="6.88671875"/>
+    <col min="6" max="6" width="11.5546875"/>
+    <col min="7" max="7" width="14.33203125"/>
+    <col min="8" max="8" width="13.5546875"/>
+    <col min="9" max="9" width="27.88671875"/>
+    <col min="10" max="10" width="10.88671875"/>
+    <col min="11" max="1025" width="8.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -1115,8 +1127,11 @@
       <c r="K1" s="23" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="L1" s="26" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
         <v>11</v>
       </c>
@@ -1140,14 +1155,17 @@
         <v>1</v>
       </c>
       <c r="I2" s="23"/>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="27" t="s">
         <v>17</v>
       </c>
       <c r="K2" s="23">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="L2" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>11</v>
       </c>
@@ -1177,8 +1195,11 @@
       <c r="K3" s="23">
         <v>200</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
         <v>11</v>
       </c>
@@ -1208,8 +1229,11 @@
       <c r="K4" s="23">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>11</v>
       </c>
@@ -1239,8 +1263,11 @@
       <c r="K5" s="23">
         <v>200</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>11</v>
       </c>
@@ -1270,8 +1297,11 @@
       <c r="K6" s="23">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>11</v>
       </c>
@@ -1301,8 +1331,11 @@
       <c r="K7" s="23">
         <v>200</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>11</v>
       </c>
@@ -1332,8 +1365,11 @@
       <c r="K8" s="23">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
         <v>11</v>
       </c>
@@ -1363,8 +1399,11 @@
       <c r="K9" s="23">
         <v>200</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
         <v>11</v>
       </c>
@@ -1394,8 +1433,11 @@
       <c r="K10" s="23">
         <v>123</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" s="23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
         <v>11</v>
       </c>
@@ -1425,8 +1467,11 @@
       <c r="K11" s="23">
         <v>123</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" s="23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
         <v>11</v>
       </c>
@@ -1456,8 +1501,11 @@
       <c r="K12" s="23">
         <v>123</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12" s="23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="23" t="s">
         <v>11</v>
       </c>
@@ -1487,8 +1535,11 @@
       <c r="K13" s="23">
         <v>123</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13" s="23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="23" t="s">
         <v>11</v>
       </c>
@@ -1518,8 +1569,11 @@
       <c r="K14" s="23">
         <v>130</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14" s="23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
         <v>11</v>
       </c>
@@ -1549,8 +1603,11 @@
       <c r="K15" s="23">
         <v>130</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15" s="23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="23" t="s">
         <v>11</v>
       </c>
@@ -1580,8 +1637,11 @@
       <c r="K16" s="23">
         <v>130</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16" s="23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="23" t="s">
         <v>11</v>
       </c>
@@ -1611,8 +1671,11 @@
       <c r="K17" s="23">
         <v>98</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17" s="23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="23" t="s">
         <v>11</v>
       </c>
@@ -1642,8 +1705,11 @@
       <c r="K18" s="23">
         <v>98</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" s="23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="23" t="s">
         <v>11</v>
       </c>
@@ -1673,8 +1739,11 @@
       <c r="K19" s="23">
         <v>98</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19" s="23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="23" t="s">
         <v>11</v>
       </c>
@@ -1704,8 +1773,11 @@
       <c r="K20" s="23">
         <v>98</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20" s="23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="23" t="s">
         <v>11</v>
       </c>
@@ -1735,8 +1807,11 @@
       <c r="K21" s="23">
         <v>98</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21" s="23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="23" t="s">
         <v>11</v>
       </c>
@@ -1766,8 +1841,11 @@
       <c r="K22" s="23">
         <v>130</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22" s="23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="23" t="s">
         <v>11</v>
       </c>
@@ -1797,8 +1875,11 @@
       <c r="K23" s="23">
         <v>130</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23" s="23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="23" t="s">
         <v>11</v>
       </c>
@@ -1828,8 +1909,11 @@
       <c r="K24" s="23">
         <v>98</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24" s="23" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="23" t="s">
         <v>11</v>
       </c>
@@ -1859,8 +1943,11 @@
       <c r="K25" s="23">
         <v>98</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25" s="23" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="23">
         <v>1</v>
       </c>
@@ -1890,30 +1977,33 @@
       <c r="K26" s="23">
         <v>98</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L26" s="23" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C33" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
@@ -1925,21 +2015,21 @@
   <sheetViews>
     <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8" style="2"/>
-    <col min="2" max="2" width="15.7109375" style="3"/>
-    <col min="3" max="3" width="42.5703125" style="3"/>
-    <col min="4" max="4" width="9.42578125" style="4"/>
-    <col min="5" max="5" width="8.42578125" style="3"/>
-    <col min="6" max="6" width="12.85546875" style="3"/>
-    <col min="7" max="7" width="14.7109375" style="5"/>
-    <col min="8" max="8" width="14.42578125" style="5"/>
-    <col min="9" max="9" width="27.140625" style="3"/>
+    <col min="2" max="2" width="15.6640625" style="3"/>
+    <col min="3" max="3" width="42.5546875" style="3"/>
+    <col min="4" max="4" width="9.44140625" style="4"/>
+    <col min="5" max="5" width="8.44140625" style="3"/>
+    <col min="6" max="6" width="12.88671875" style="3"/>
+    <col min="7" max="7" width="14.6640625" style="5"/>
+    <col min="8" max="8" width="14.44140625" style="5"/>
+    <col min="9" max="9" width="27.109375" style="3"/>
     <col min="10" max="1025" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1974,7 +2064,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>11</v>
       </c>
@@ -2009,7 +2099,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>11</v>
       </c>
@@ -2044,7 +2134,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>11</v>
       </c>
@@ -2079,7 +2169,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>11</v>
       </c>
@@ -2114,7 +2204,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -2149,7 +2239,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>11</v>
       </c>
@@ -2184,7 +2274,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
         <v>11</v>
       </c>
@@ -2219,7 +2309,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>11</v>
       </c>
@@ -2254,7 +2344,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
         <v>11</v>
       </c>
@@ -2289,7 +2379,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>11</v>
       </c>
@@ -2324,7 +2414,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>11</v>
       </c>
@@ -2359,7 +2449,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
         <v>45</v>
       </c>
@@ -2394,7 +2484,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>11</v>
       </c>
@@ -2429,7 +2519,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>11</v>
       </c>
@@ -2464,7 +2554,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
         <v>11</v>
       </c>
@@ -2499,7 +2589,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>11</v>
       </c>
@@ -2534,7 +2624,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
         <v>11</v>
       </c>
@@ -2569,7 +2659,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
         <v>11</v>
       </c>
@@ -2604,7 +2694,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
         <v>11</v>
       </c>
@@ -2639,7 +2729,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
         <v>11</v>
       </c>
@@ -2674,7 +2764,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
         <v>11</v>
       </c>
@@ -2709,7 +2799,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
         <v>11</v>
       </c>
@@ -2744,7 +2834,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
         <v>11</v>
       </c>
@@ -2779,7 +2869,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A25" s="17" t="s">
         <v>11</v>
       </c>
@@ -2814,7 +2904,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A26" s="17" t="s">
         <v>11</v>
       </c>
@@ -2849,7 +2939,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A27" s="17" t="s">
         <v>11</v>
       </c>
@@ -2884,7 +2974,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A28" s="17" t="s">
         <v>11</v>
       </c>
@@ -2919,7 +3009,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
         <v>11</v>
       </c>
@@ -2954,7 +3044,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A30" s="17" t="s">
         <v>11</v>
       </c>
@@ -2989,7 +3079,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
         <v>11</v>
       </c>
@@ -3024,7 +3114,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
         <v>11</v>
       </c>
@@ -3059,7 +3149,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A33" s="17" t="s">
         <v>11</v>
       </c>

--- a/tests/test_paklijsten/paklijst_all_possibilities.xlsx
+++ b/tests/test_paklijsten/paklijst_all_possibilities.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flori\Documents\HDS\2d_rectangle_packing\rectangle_packing\test_paklijsten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flori\Documents\HDS\2d_rectangle_packing\tests\test_paklijsten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0045F1C8-8D0D-4766-A7AD-96E6695344E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E595F2A6-06CB-41E5-8E96-1591FE4C790F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28755" yWindow="-16530" windowWidth="15990" windowHeight="24840" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="paklijst_zonder_opmaak" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="153">
   <si>
     <t>Aantal</t>
   </si>
@@ -577,6 +577,9 @@
   </si>
   <si>
     <t>Grijs_(PSE606)</t>
+  </si>
+  <si>
+    <t>Materiaal</t>
   </si>
 </sst>
 </file>
@@ -664,7 +667,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -725,6 +728,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1060,10 +1064,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1081,7 +1085,7 @@
     <col min="11" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -1115,8 +1119,11 @@
       <c r="K1" s="23" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="L1" s="26" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>11</v>
       </c>
@@ -1146,8 +1153,11 @@
       <c r="K2" s="23">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="L2" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>11</v>
       </c>
@@ -1177,8 +1187,11 @@
       <c r="K3" s="23">
         <v>200</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
         <v>11</v>
       </c>
@@ -1208,8 +1221,11 @@
       <c r="K4" s="23">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
         <v>11</v>
       </c>
@@ -1239,8 +1255,11 @@
       <c r="K5" s="23">
         <v>200</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>11</v>
       </c>
@@ -1270,8 +1289,11 @@
       <c r="K6" s="23">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>11</v>
       </c>
@@ -1301,8 +1323,11 @@
       <c r="K7" s="23">
         <v>200</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>11</v>
       </c>
@@ -1332,8 +1357,11 @@
       <c r="K8" s="23">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>11</v>
       </c>
@@ -1363,8 +1391,11 @@
       <c r="K9" s="23">
         <v>200</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>11</v>
       </c>
@@ -1394,8 +1425,11 @@
       <c r="K10" s="23">
         <v>123</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" s="23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>11</v>
       </c>
@@ -1425,8 +1459,11 @@
       <c r="K11" s="23">
         <v>123</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" s="23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>11</v>
       </c>
@@ -1456,8 +1493,11 @@
       <c r="K12" s="23">
         <v>123</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12" s="23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>11</v>
       </c>
@@ -1487,8 +1527,11 @@
       <c r="K13" s="23">
         <v>123</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13" s="23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
         <v>11</v>
       </c>
@@ -1518,8 +1561,11 @@
       <c r="K14" s="23">
         <v>130</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14" s="23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
         <v>11</v>
       </c>
@@ -1549,8 +1595,11 @@
       <c r="K15" s="23">
         <v>130</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15" s="23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
         <v>11</v>
       </c>
@@ -1580,8 +1629,11 @@
       <c r="K16" s="23">
         <v>130</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16" s="23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
         <v>11</v>
       </c>
@@ -1611,8 +1663,11 @@
       <c r="K17" s="23">
         <v>98</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17" s="23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
         <v>11</v>
       </c>
@@ -1642,8 +1697,11 @@
       <c r="K18" s="23">
         <v>98</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" s="23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
         <v>11</v>
       </c>
@@ -1673,8 +1731,11 @@
       <c r="K19" s="23">
         <v>98</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19" s="23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
         <v>11</v>
       </c>
@@ -1704,8 +1765,11 @@
       <c r="K20" s="23">
         <v>98</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20" s="23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
         <v>11</v>
       </c>
@@ -1735,8 +1799,11 @@
       <c r="K21" s="23">
         <v>98</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21" s="23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
         <v>11</v>
       </c>
@@ -1766,8 +1833,11 @@
       <c r="K22" s="23">
         <v>130</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22" s="23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
         <v>11</v>
       </c>
@@ -1797,8 +1867,11 @@
       <c r="K23" s="23">
         <v>130</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23" s="23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
         <v>11</v>
       </c>
@@ -1828,8 +1901,11 @@
       <c r="K24" s="23">
         <v>98</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24" s="23" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
         <v>11</v>
       </c>
@@ -1859,8 +1935,11 @@
       <c r="K25" s="23">
         <v>98</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25" s="23" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <v>1</v>
       </c>
@@ -1890,23 +1969,26 @@
       <c r="K26" s="23">
         <v>98</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L26" s="23" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C32" s="1"/>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">

--- a/tests/test_paklijsten/paklijst_all_possibilities.xlsx
+++ b/tests/test_paklijsten/paklijst_all_possibilities.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flori\Documents\HDS\2d_rectangle_packing\tests\test_paklijsten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50FB214-68CA-48AE-B388-447C12BA441E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41AD40EE-2B30-4C63-BBCB-1D6C4D85CA6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="paklijst_zonder_opmaak" sheetId="1" r:id="rId1"/>
     <sheet name="Paklijst" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="154">
   <si>
     <t>Aantal</t>
   </si>
@@ -580,6 +580,9 @@
   </si>
   <si>
     <t>Materiaal</t>
+  </si>
+  <si>
+    <t>Artikelnaam</t>
   </si>
 </sst>
 </file>
@@ -589,13 +592,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -672,22 +682,12 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -699,44 +699,55 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1072,28 +1083,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L26"/>
+      <selection activeCell="M2" sqref="M2:M26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5546875"/>
-    <col min="2" max="2" width="6.109375"/>
-    <col min="3" max="3" width="53.88671875"/>
+    <col min="1" max="1" width="6.5703125"/>
+    <col min="2" max="2" width="6.140625"/>
+    <col min="3" max="3" width="53.85546875"/>
     <col min="4" max="4" width="8"/>
-    <col min="5" max="5" width="6.88671875"/>
-    <col min="6" max="6" width="11.5546875"/>
-    <col min="7" max="7" width="14.33203125"/>
-    <col min="8" max="8" width="13.5546875"/>
-    <col min="9" max="9" width="27.88671875"/>
-    <col min="10" max="10" width="10.88671875"/>
-    <col min="11" max="1025" width="8.5546875"/>
+    <col min="5" max="5" width="6.85546875"/>
+    <col min="6" max="6" width="11.5703125"/>
+    <col min="7" max="7" width="14.28515625"/>
+    <col min="8" max="8" width="13.5703125"/>
+    <col min="9" max="9" width="27.85546875"/>
+    <col min="10" max="10" width="10.85546875"/>
+    <col min="11" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -1130,8 +1141,11 @@
       <c r="L1" s="26" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M1" s="28" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>11</v>
       </c>
@@ -1164,8 +1178,11 @@
       <c r="L2" s="23" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M2" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>11</v>
       </c>
@@ -1198,8 +1215,11 @@
       <c r="L3" s="23" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M3" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
         <v>11</v>
       </c>
@@ -1232,8 +1252,11 @@
       <c r="L4" s="23" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M4" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
         <v>11</v>
       </c>
@@ -1266,8 +1289,11 @@
       <c r="L5" s="23" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M5" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>11</v>
       </c>
@@ -1300,8 +1326,11 @@
       <c r="L6" s="23" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M6" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>11</v>
       </c>
@@ -1334,8 +1363,11 @@
       <c r="L7" s="23" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M7" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>11</v>
       </c>
@@ -1368,8 +1400,11 @@
       <c r="L8" s="23" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M8" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>11</v>
       </c>
@@ -1402,8 +1437,11 @@
       <c r="L9" s="23" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M9" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>11</v>
       </c>
@@ -1436,8 +1474,11 @@
       <c r="L10" s="23" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M10" s="23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>11</v>
       </c>
@@ -1470,8 +1511,11 @@
       <c r="L11" s="23" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M11" s="23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>11</v>
       </c>
@@ -1504,8 +1548,11 @@
       <c r="L12" s="23" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M12" s="23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>11</v>
       </c>
@@ -1538,8 +1585,11 @@
       <c r="L13" s="23" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M13" s="23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
         <v>11</v>
       </c>
@@ -1572,8 +1622,11 @@
       <c r="L14" s="23" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M14" s="23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
         <v>11</v>
       </c>
@@ -1606,8 +1659,11 @@
       <c r="L15" s="23" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M15" s="23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
         <v>11</v>
       </c>
@@ -1640,8 +1696,11 @@
       <c r="L16" s="23" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M16" s="23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
         <v>11</v>
       </c>
@@ -1674,8 +1733,11 @@
       <c r="L17" s="23" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M17" s="23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
         <v>11</v>
       </c>
@@ -1708,8 +1770,11 @@
       <c r="L18" s="23" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M18" s="23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
         <v>11</v>
       </c>
@@ -1742,8 +1807,11 @@
       <c r="L19" s="23" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M19" s="23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
         <v>11</v>
       </c>
@@ -1776,8 +1844,11 @@
       <c r="L20" s="23" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M20" s="23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
         <v>11</v>
       </c>
@@ -1810,8 +1881,11 @@
       <c r="L21" s="23" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M21" s="23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
         <v>11</v>
       </c>
@@ -1844,8 +1918,11 @@
       <c r="L22" s="23" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M22" s="23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
         <v>11</v>
       </c>
@@ -1878,8 +1955,11 @@
       <c r="L23" s="23" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M23" s="23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
         <v>11</v>
       </c>
@@ -1912,8 +1992,11 @@
       <c r="L24" s="23" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M24" s="23" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
         <v>11</v>
       </c>
@@ -1946,8 +2029,11 @@
       <c r="L25" s="23" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M25" s="23" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <v>1</v>
       </c>
@@ -1980,30 +2066,33 @@
       <c r="L26" s="23" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M26" s="23" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
@@ -2015,21 +2104,21 @@
   <sheetViews>
     <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" style="2"/>
-    <col min="2" max="2" width="15.6640625" style="3"/>
-    <col min="3" max="3" width="42.5546875" style="3"/>
-    <col min="4" max="4" width="9.44140625" style="4"/>
-    <col min="5" max="5" width="8.44140625" style="3"/>
-    <col min="6" max="6" width="12.88671875" style="3"/>
-    <col min="7" max="7" width="14.6640625" style="5"/>
-    <col min="8" max="8" width="14.44140625" style="5"/>
-    <col min="9" max="9" width="27.109375" style="3"/>
+    <col min="2" max="2" width="15.7109375" style="3"/>
+    <col min="3" max="3" width="42.5703125" style="3"/>
+    <col min="4" max="4" width="9.42578125" style="4"/>
+    <col min="5" max="5" width="8.42578125" style="3"/>
+    <col min="6" max="6" width="12.85546875" style="3"/>
+    <col min="7" max="7" width="14.7109375" style="5"/>
+    <col min="8" max="8" width="14.42578125" style="5"/>
+    <col min="9" max="9" width="27.140625" style="3"/>
     <col min="10" max="1025" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2064,7 +2153,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>11</v>
       </c>
@@ -2099,7 +2188,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>11</v>
       </c>
@@ -2134,7 +2223,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>11</v>
       </c>
@@ -2169,7 +2258,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>11</v>
       </c>
@@ -2204,7 +2293,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -2239,7 +2328,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>11</v>
       </c>
@@ -2274,7 +2363,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>11</v>
       </c>
@@ -2309,7 +2398,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>11</v>
       </c>
@@ -2344,7 +2433,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>11</v>
       </c>
@@ -2379,7 +2468,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>11</v>
       </c>
@@ -2414,7 +2503,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>11</v>
       </c>
@@ -2449,7 +2538,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="39" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>45</v>
       </c>
@@ -2484,7 +2573,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>11</v>
       </c>
@@ -2519,7 +2608,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>11</v>
       </c>
@@ -2554,7 +2643,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>11</v>
       </c>
@@ -2589,7 +2678,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>11</v>
       </c>
@@ -2624,7 +2713,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>11</v>
       </c>
@@ -2659,7 +2748,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>11</v>
       </c>
@@ -2694,7 +2783,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>11</v>
       </c>
@@ -2729,7 +2818,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>11</v>
       </c>
@@ -2764,7 +2853,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>11</v>
       </c>
@@ -2799,7 +2888,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>11</v>
       </c>
@@ -2834,7 +2923,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>11</v>
       </c>
@@ -2869,7 +2958,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
         <v>11</v>
       </c>
@@ -2904,7 +2993,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
         <v>11</v>
       </c>
@@ -2939,7 +3028,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
         <v>11</v>
       </c>
@@ -2974,7 +3063,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
         <v>11</v>
       </c>
@@ -3009,7 +3098,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
         <v>11</v>
       </c>
@@ -3044,7 +3133,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
         <v>11</v>
       </c>
@@ -3079,7 +3168,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
         <v>11</v>
       </c>
@@ -3114,7 +3203,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>11</v>
       </c>
@@ -3149,7 +3238,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
         <v>11</v>
       </c>

--- a/tests/test_paklijsten/paklijst_all_possibilities.xlsx
+++ b/tests/test_paklijsten/paklijst_all_possibilities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flori\Documents\HDS\2d_rectangle_packing\tests\test_paklijsten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41AD40EE-2B30-4C63-BBCB-1D6C4D85CA6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78C96E8-DF4E-4F80-ACD0-29A7FFE29F07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="155">
   <si>
     <t>Aantal</t>
   </si>
@@ -583,6 +583,9 @@
   </si>
   <si>
     <t>Artikelnaam</t>
+  </si>
+  <si>
+    <t>Soort</t>
   </si>
 </sst>
 </file>
@@ -592,13 +595,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -682,22 +692,12 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -709,45 +709,56 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1086,7 +1097,7 @@
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M26"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1132,8 +1143,8 @@
       <c r="I1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="23" t="s">
-        <v>10</v>
+      <c r="J1" s="29" t="s">
+        <v>154</v>
       </c>
       <c r="K1" s="23" t="s">
         <v>9</v>
@@ -2092,7 +2103,7 @@
       <c r="C33" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
